--- a/Financial Engineering 1/Assignment5_cds.xlsx
+++ b/Financial Engineering 1/Assignment5_cds.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\FinEng6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19155" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="5" r:id="rId1"/>
@@ -87,7 +92,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="u">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -204,9 +209,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -227,6 +236,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -262,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,13 +283,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +302,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,20 +622,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" style="1"/>
@@ -630,7 +646,7 @@
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -638,7 +654,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -664,7 +680,7 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -676,7 +692,7 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -771,6 +787,9 @@
       <c r="AJ5" s="4"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1.7646491729497782E-2</v>
+      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -784,19 +803,22 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2.4964821898283064E-2</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C16" si="0">C6*(1-A6)</f>
-        <v>1</v>
+        <f>C6*(1-A6)</f>
+        <v>0.98235350827050216</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D16" si="1">C6*A6</f>
-        <v>0</v>
+        <f t="shared" ref="D7:D16" si="0">C6*A6</f>
+        <v>1.7646491729497782E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E16" si="2">1/(1+rf/2)^(B7/6)</f>
+        <f t="shared" ref="E7:E16" si="1">1/(1+rf/2)^(B7/6)</f>
         <v>0.97560975609756106</v>
       </c>
       <c r="H7">
@@ -807,7 +829,7 @@
       </c>
       <c r="J7" s="1">
         <f>$E7*(H7*$C7+I7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <v>4.9641292279487699</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -817,7 +839,7 @@
       </c>
       <c r="P7" s="1">
         <f>$E7*(N7*$C7+O7*$D7)</f>
-        <v>1.9512195121951221</v>
+        <v>2.3471895705155599</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -826,8 +848,8 @@
         <v>50</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V7:V12" si="3">$E7*(T7*$C7+U7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <f t="shared" ref="V7:V12" si="2">$E7*(T7*$C7+U7*$D7)</f>
+        <v>5.652772807636488</v>
       </c>
       <c r="Z7">
         <v>5</v>
@@ -836,8 +858,8 @@
         <v>10</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" ref="AB7:AB14" si="4">$E7*(Z7*$C7+AA7*$D7)</f>
-        <v>4.8780487804878057</v>
+        <f t="shared" ref="AB7:AB14" si="3">$E7*(Z7*$C7+AA7*$D7)</f>
+        <v>4.9641292279487699</v>
       </c>
       <c r="AF7">
         <v>10</v>
@@ -846,24 +868,27 @@
         <v>20</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" ref="AH7:AH16" si="5">$E7*(AF7*$C7+AG7*$D7)</f>
-        <v>9.7560975609756113</v>
+        <f t="shared" ref="AH7:AH16" si="4">$E7*(AF7*$C7+AG7*$D7)</f>
+        <v>9.9282584558975397</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2.499152748865948E-2</v>
+      </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" ref="C8:C16" si="5">C7*(1-A7)</f>
+        <v>0.9578292278953755</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+        <v>2.4524280375126627E-2</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="2"/>
         <v>0.95181439619274244</v>
       </c>
       <c r="H8">
@@ -874,7 +899,7 @@
       </c>
       <c r="J8" s="1">
         <f>$E8*(H8*$C8+I8*$D8)</f>
-        <v>99.940511600237954</v>
+        <v>95.959368692697865</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -884,7 +909,7 @@
       </c>
       <c r="P8" s="1">
         <f>$E8*(N8*$C8+O8*$D8)</f>
-        <v>1.9036287923854849</v>
+        <v>2.406915374342812</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -893,8 +918,8 @@
         <v>50</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7590719809637125</v>
+        <f t="shared" si="2"/>
+        <v>5.7255063968906219</v>
       </c>
       <c r="Z8">
         <v>5</v>
@@ -903,8 +928,8 @@
         <v>10</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="4"/>
-        <v>4.7590719809637125</v>
+        <f t="shared" si="3"/>
+        <v>4.7918038721981153</v>
       </c>
       <c r="AF8">
         <v>10</v>
@@ -913,24 +938,27 @@
         <v>20</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="5"/>
-        <v>9.5181439619274251</v>
+        <f t="shared" si="4"/>
+        <v>9.5836077443962306</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2.7430203507394415E-2</v>
+      </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.93389161241698671</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+        <v>2.3937615478388762E-2</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
         <v>0.92859941091974885</v>
       </c>
       <c r="N9">
@@ -941,7 +969,7 @@
       </c>
       <c r="P9" s="1">
         <f>$E9*(N9*$C9+O9*$D9)</f>
-        <v>1.8571988218394977</v>
+        <v>2.2901337931079984</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -950,8 +978,8 @@
         <v>50</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="3"/>
-        <v>4.6429970545987445</v>
+        <f t="shared" si="2"/>
+        <v>5.4474787873693042</v>
       </c>
       <c r="Z9">
         <v>5</v>
@@ -960,8 +988,8 @@
         <v>10</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="4"/>
-        <v>4.6429970545987445</v>
+        <f t="shared" si="3"/>
+        <v>4.5583405620870945</v>
       </c>
       <c r="AF9">
         <v>10</v>
@@ -970,24 +998,27 @@
         <v>20</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="5"/>
-        <v>9.2859941091974889</v>
+        <f t="shared" si="4"/>
+        <v>9.116681124174189</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2.7835839463656149E-2</v>
+      </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90827477543454005</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+        <v>2.5616836982446656E-2</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="2"/>
         <v>0.90595064479975507</v>
       </c>
       <c r="N10">
@@ -998,7 +1029,7 @@
       </c>
       <c r="P10" s="1">
         <f>$E10*(N10*$C10+O10*$D10)</f>
-        <v>92.406965769575024</v>
+        <v>84.511105832497421</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -1007,8 +1038,8 @@
         <v>50</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5297532239987754</v>
+        <f t="shared" si="2"/>
+        <v>5.2746400914002596</v>
       </c>
       <c r="Z10">
         <v>5</v>
@@ -1017,8 +1048,8 @@
         <v>10</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="4"/>
-        <v>4.5297532239987754</v>
+        <f t="shared" si="3"/>
+        <v>4.3463364921211491</v>
       </c>
       <c r="AF10">
         <v>10</v>
@@ -1027,24 +1058,27 @@
         <v>20</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="5"/>
-        <v>9.0595064479975509</v>
+        <f t="shared" si="4"/>
+        <v>8.6926729842422983</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>3.4947692103301092E-2</v>
+      </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88299218459665585</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+        <v>2.5282590837884197E-2</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="2"/>
         <v>0.88385428760951712</v>
       </c>
       <c r="T11">
@@ -1054,8 +1088,8 @@
         <v>50</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="3"/>
-        <v>4.4192714380475859</v>
+        <f t="shared" si="2"/>
+        <v>5.0194884571042948</v>
       </c>
       <c r="Z11">
         <v>5</v>
@@ -1064,8 +1098,8 @@
         <v>10</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="4"/>
-        <v>4.4192714380475859</v>
+        <f t="shared" si="3"/>
+        <v>4.1256434045466523</v>
       </c>
       <c r="AF11">
         <v>10</v>
@@ -1074,24 +1108,27 @@
         <v>20</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="5"/>
-        <v>8.8385428760951719</v>
+        <f t="shared" si="4"/>
+        <v>8.2512868090933047</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>3.4947692119521263E-2</v>
+      </c>
       <c r="B12">
         <v>36</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.85213364559975069</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+        <v>3.0858538996905129E-2</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="2"/>
         <v>0.86229686596050459</v>
       </c>
       <c r="T12">
@@ -1101,8 +1138,8 @@
         <v>50</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="3"/>
-        <v>90.541170925852981</v>
+        <f t="shared" si="2"/>
+        <v>78.483639131174826</v>
       </c>
       <c r="Z12">
         <v>5</v>
@@ -1111,8 +1148,8 @@
         <v>10</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3114843298025232</v>
+        <f t="shared" si="3"/>
+        <v>3.9400530745523348</v>
       </c>
       <c r="AF12">
         <v>10</v>
@@ -1121,24 +1158,27 @@
         <v>20</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="5"/>
-        <v>8.6229686596050463</v>
+        <f t="shared" si="4"/>
+        <v>7.8801061491046696</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>3.7458532210485909E-2</v>
+      </c>
       <c r="B13">
         <v>42</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.82235354130864535</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+        <v>2.9780104291105332E-2</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
         <v>0.84126523508341911</v>
       </c>
       <c r="V13" s="1"/>
@@ -1149,8 +1189,8 @@
         <v>10</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="4"/>
-        <v>4.2063261754170957</v>
+        <f t="shared" si="3"/>
+        <v>3.7096168906261533</v>
       </c>
       <c r="AF13">
         <v>10</v>
@@ -1159,24 +1199,27 @@
         <v>20</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="5"/>
-        <v>8.4126523508341915</v>
+        <f t="shared" si="4"/>
+        <v>7.4192337812523066</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>4.0612134316289981E-2</v>
+      </c>
       <c r="B14">
         <v>48</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.7915493846931283</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+        <v>3.0804156615517046E-2</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="2"/>
         <v>0.82074657081309188</v>
       </c>
       <c r="V14" s="1"/>
@@ -1187,8 +1230,8 @@
         <v>10</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="4"/>
-        <v>86.178389935374653</v>
+        <f t="shared" si="3"/>
+        <v>68.467275586280039</v>
       </c>
       <c r="AF14">
         <v>10</v>
@@ -1197,24 +1240,27 @@
         <v>20</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="5"/>
-        <v>8.2074657081309184</v>
+        <f t="shared" si="4"/>
+        <v>7.0022625493404798</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>4.2105609107496819E-2</v>
+      </c>
       <c r="B15">
         <v>54</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.75940287476399426</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+        <v>3.2146509929134016E-2</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
         <v>0.8007283617688703</v>
       </c>
       <c r="V15" s="1"/>
@@ -1226,24 +1272,27 @@
         <v>20</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="5"/>
-        <v>8.007283617688703</v>
+        <f t="shared" si="4"/>
+        <v>6.5955666429662818</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>4.2115562057070198E-2</v>
+      </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72742775416407213</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+        <v>3.1975120599922101E-2</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
         <v>0.78119840172572708</v>
       </c>
       <c r="V16" s="1"/>
@@ -1255,8 +1304,8 @@
         <v>20</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="5"/>
-        <v>85.931824189829982</v>
+        <f t="shared" si="4"/>
+        <v>63.008772143782842</v>
       </c>
     </row>
     <row r="17" spans="9:34" x14ac:dyDescent="0.25">
@@ -1269,35 +1318,35 @@
       </c>
       <c r="J18" s="1">
         <f>SUM(J7:J16)</f>
-        <v>104.81856038072576</v>
+        <v>100.92349792064664</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="10">
         <f>SUM(P7:P16)</f>
-        <v>98.119012895995127</v>
+        <v>91.555344570463788</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="V18" s="1">
         <f>SUM(V7:V16)</f>
-        <v>113.77031340394961</v>
+        <v>105.6035256715758</v>
       </c>
       <c r="AA18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AB18" s="1">
         <f>SUM(AB7:AB16)</f>
-        <v>117.9253429186909</v>
+        <v>98.903199110360305</v>
       </c>
       <c r="AG18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AH18" s="1">
         <f>SUM(AH7:AH16)</f>
-        <v>165.6404794822821</v>
+        <v>137.47844838425016</v>
       </c>
     </row>
     <row r="19" spans="9:34" x14ac:dyDescent="0.25">
@@ -1311,7 +1360,7 @@
         <v>15</v>
       </c>
       <c r="P19" s="1">
-        <v>91.555344568772824</v>
+        <v>91.555344568772796</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>15</v>
@@ -1336,46 +1385,46 @@
       <c r="I20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="11">
         <f>(J18-J19)^2</f>
-        <v>15.171511589267359</v>
+        <v>7.5109989449630436E-18</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P20" s="1">
         <f>(P18-P19)^2</f>
-        <v>43.081741909781215</v>
+        <v>2.8594547392565336E-18</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="V20" s="1">
         <f>(V18-V19)^2</f>
-        <v>66.696421862374066</v>
+        <v>4.0263339433445401E-20</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AB20" s="1">
         <f>(AB18-AB19)^2</f>
-        <v>361.84195509341868</v>
+        <v>5.6547630885588007E-19</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AH20" s="1">
         <f>(AH18-AH19)^2</f>
-        <v>793.09999553409045</v>
+        <v>3.314748986040378E-19</v>
       </c>
     </row>
     <row r="21" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="12">
         <f>J20+P20+V20+AB20+AH20</f>
-        <v>1279.8916259889318</v>
+        <v>1.130766823111294E-17</v>
       </c>
     </row>
     <row r="23" spans="9:34" x14ac:dyDescent="0.25">
